--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col1a1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col1a1-Itgb1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.108069666666667</v>
+        <v>26.81310566666667</v>
       </c>
       <c r="H2">
-        <v>27.324209</v>
+        <v>80.439317</v>
       </c>
       <c r="I2">
-        <v>0.00155006418458712</v>
+        <v>0.004518206005002021</v>
       </c>
       <c r="J2">
-        <v>0.00155006418458712</v>
+        <v>0.004518206005002021</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N2">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O2">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P2">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q2">
-        <v>901.2136554804388</v>
+        <v>4507.546563893755</v>
       </c>
       <c r="R2">
-        <v>8110.922899323948</v>
+        <v>40567.91907504379</v>
       </c>
       <c r="S2">
-        <v>0.0003252049684020411</v>
+        <v>0.001348315019826302</v>
       </c>
       <c r="T2">
-        <v>0.0003252049684020412</v>
+        <v>0.001348315019826302</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.108069666666667</v>
+        <v>26.81310566666667</v>
       </c>
       <c r="H3">
-        <v>27.324209</v>
+        <v>80.439317</v>
       </c>
       <c r="I3">
-        <v>0.00155006418458712</v>
+        <v>0.004518206005002021</v>
       </c>
       <c r="J3">
-        <v>0.00155006418458712</v>
+        <v>0.004518206005002021</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>489.018707</v>
       </c>
       <c r="O3">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P3">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q3">
-        <v>1484.672150553085</v>
+        <v>4370.703421255903</v>
       </c>
       <c r="R3">
-        <v>13362.04935497776</v>
+        <v>39336.33079130312</v>
       </c>
       <c r="S3">
-        <v>0.0005357472746577644</v>
+        <v>0.001307381961905883</v>
       </c>
       <c r="T3">
-        <v>0.0005357472746577646</v>
+        <v>0.001307381961905883</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.108069666666667</v>
+        <v>26.81310566666667</v>
       </c>
       <c r="H4">
-        <v>27.324209</v>
+        <v>80.439317</v>
       </c>
       <c r="I4">
-        <v>0.00155006418458712</v>
+        <v>0.004518206005002021</v>
       </c>
       <c r="J4">
-        <v>0.00155006418458712</v>
+        <v>0.004518206005002021</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N4">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O4">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P4">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q4">
-        <v>1314.046683044834</v>
+        <v>4450.802059873004</v>
       </c>
       <c r="R4">
-        <v>11826.42014740351</v>
+        <v>40057.21853885703</v>
       </c>
       <c r="S4">
-        <v>0.0004741766921081433</v>
+        <v>0.001331341381067553</v>
       </c>
       <c r="T4">
-        <v>0.0004741766921081435</v>
+        <v>0.001331341381067553</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.108069666666667</v>
+        <v>26.81310566666667</v>
       </c>
       <c r="H5">
-        <v>27.324209</v>
+        <v>80.439317</v>
       </c>
       <c r="I5">
-        <v>0.00155006418458712</v>
+        <v>0.004518206005002021</v>
       </c>
       <c r="J5">
-        <v>0.00155006418458712</v>
+        <v>0.004518206005002021</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N5">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q5">
-        <v>595.6322954487646</v>
+        <v>1775.744425637928</v>
       </c>
       <c r="R5">
-        <v>5360.690659038881</v>
+        <v>15981.69983074135</v>
       </c>
       <c r="S5">
-        <v>0.0002149352494191708</v>
+        <v>0.000531167642202283</v>
       </c>
       <c r="T5">
-        <v>0.0002149352494191708</v>
+        <v>0.000531167642202283</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5771.873535333332</v>
+        <v>5771.873535333333</v>
       </c>
       <c r="H6">
         <v>17315.620606</v>
       </c>
       <c r="I6">
-        <v>0.9822909543423312</v>
+        <v>0.9726032482643521</v>
       </c>
       <c r="J6">
-        <v>0.9822909543423313</v>
+        <v>0.9726032482643523</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N6">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O6">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P6">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q6">
-        <v>571107.9776635316</v>
+        <v>970308.6634147229</v>
       </c>
       <c r="R6">
-        <v>5139971.798971783</v>
+        <v>8732777.970732506</v>
       </c>
       <c r="S6">
-        <v>0.2060855943546604</v>
+        <v>0.2902425357575277</v>
       </c>
       <c r="T6">
-        <v>0.2060855943546605</v>
+        <v>0.2902425357575278</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5771.873535333332</v>
+        <v>5771.873535333333</v>
       </c>
       <c r="H7">
         <v>17315.620606</v>
       </c>
       <c r="I7">
-        <v>0.9822909543423312</v>
+        <v>0.9726032482643521</v>
       </c>
       <c r="J7">
-        <v>0.9822909543423313</v>
+        <v>0.9726032482643523</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>489.018707</v>
       </c>
       <c r="O7">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P7">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q7">
-        <v>940851.3777387417</v>
+        <v>940851.3777387418</v>
       </c>
       <c r="R7">
-        <v>8467662.399648676</v>
+        <v>8467662.399648678</v>
       </c>
       <c r="S7">
-        <v>0.3395083293599578</v>
+        <v>0.2814311568494572</v>
       </c>
       <c r="T7">
-        <v>0.3395083293599579</v>
+        <v>0.2814311568494572</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5771.873535333332</v>
+        <v>5771.873535333333</v>
       </c>
       <c r="H8">
         <v>17315.620606</v>
       </c>
       <c r="I8">
-        <v>0.9822909543423312</v>
+        <v>0.9726032482643521</v>
       </c>
       <c r="J8">
-        <v>0.9822909543423313</v>
+        <v>0.9726032482643523</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N8">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O8">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P8">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q8">
-        <v>832724.3369488603</v>
+        <v>958093.6628435596</v>
       </c>
       <c r="R8">
-        <v>7494519.032539743</v>
+        <v>8622842.965592038</v>
       </c>
       <c r="S8">
-        <v>0.3004904442340008</v>
+        <v>0.2865887368441208</v>
       </c>
       <c r="T8">
-        <v>0.3004904442340009</v>
+        <v>0.2865887368441209</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5771.873535333332</v>
+        <v>5771.873535333333</v>
       </c>
       <c r="H9">
         <v>17315.620606</v>
       </c>
       <c r="I9">
-        <v>0.9822909543423312</v>
+        <v>0.9726032482643521</v>
       </c>
       <c r="J9">
-        <v>0.9822909543423313</v>
+        <v>0.9726032482643523</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N9">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q9">
-        <v>377458.0573831691</v>
+        <v>382252.3352301181</v>
       </c>
       <c r="R9">
-        <v>3397122.516448522</v>
+        <v>3440271.017071063</v>
       </c>
       <c r="S9">
-        <v>0.136206586393712</v>
+        <v>0.1143408188132463</v>
       </c>
       <c r="T9">
-        <v>0.136206586393712</v>
+        <v>0.1143408188132464</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>93.677025</v>
+        <v>132.4457753333333</v>
       </c>
       <c r="H10">
-        <v>281.031075</v>
+        <v>397.337326</v>
       </c>
       <c r="I10">
-        <v>0.01594250007799006</v>
+        <v>0.02231808970163987</v>
       </c>
       <c r="J10">
-        <v>0.01594250007799006</v>
+        <v>0.02231808970163988</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N10">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O10">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P10">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q10">
-        <v>9269.0347378161</v>
+        <v>22265.43642231612</v>
       </c>
       <c r="R10">
-        <v>83421.3126403449</v>
+        <v>200388.9278008451</v>
       </c>
       <c r="S10">
-        <v>0.003344751969411691</v>
+        <v>0.006660124732081199</v>
       </c>
       <c r="T10">
-        <v>0.003344751969411692</v>
+        <v>0.006660124732081202</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>93.677025</v>
+        <v>132.4457753333333</v>
       </c>
       <c r="H11">
-        <v>281.031075</v>
+        <v>397.337326</v>
       </c>
       <c r="I11">
-        <v>0.01594250007799006</v>
+        <v>0.02231808970163987</v>
       </c>
       <c r="J11">
-        <v>0.01594250007799006</v>
+        <v>0.02231808970163988</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>489.018707</v>
       </c>
       <c r="O11">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P11">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q11">
-        <v>15269.93921370223</v>
+        <v>21589.48726703972</v>
       </c>
       <c r="R11">
-        <v>137429.45292332</v>
+        <v>194305.3854033575</v>
       </c>
       <c r="S11">
-        <v>0.005510191805566697</v>
+        <v>0.006457932167727347</v>
       </c>
       <c r="T11">
-        <v>0.005510191805566698</v>
+        <v>0.006457932167727349</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>93.677025</v>
+        <v>132.4457753333333</v>
       </c>
       <c r="H12">
-        <v>281.031075</v>
+        <v>397.337326</v>
       </c>
       <c r="I12">
-        <v>0.01594250007799006</v>
+        <v>0.02231808970163987</v>
       </c>
       <c r="J12">
-        <v>0.01594250007799006</v>
+        <v>0.02231808970163988</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N12">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O12">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P12">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q12">
-        <v>13515.04638016325</v>
+        <v>21985.14178116692</v>
       </c>
       <c r="R12">
-        <v>121635.4174214692</v>
+        <v>197866.2760305023</v>
       </c>
       <c r="S12">
-        <v>0.004876934791528478</v>
+        <v>0.006576281898894398</v>
       </c>
       <c r="T12">
-        <v>0.004876934791528478</v>
+        <v>0.0065762818988944</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>93.677025</v>
+        <v>132.4457753333333</v>
       </c>
       <c r="H13">
-        <v>281.031075</v>
+        <v>397.337326</v>
       </c>
       <c r="I13">
-        <v>0.01594250007799006</v>
+        <v>0.02231808970163987</v>
       </c>
       <c r="J13">
-        <v>0.01594250007799006</v>
+        <v>0.02231808970163988</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N13">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O13">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P13">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q13">
-        <v>6126.112719116001</v>
+        <v>8771.45117657302</v>
       </c>
       <c r="R13">
-        <v>55135.01447204401</v>
+        <v>78943.06058915719</v>
       </c>
       <c r="S13">
-        <v>0.002210621511483194</v>
+        <v>0.002623750902936929</v>
       </c>
       <c r="T13">
-        <v>0.002210621511483194</v>
+        <v>0.002623750902936929</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.272029666666667</v>
+        <v>3.326003</v>
       </c>
       <c r="H14">
-        <v>3.816089</v>
+        <v>9.978009</v>
       </c>
       <c r="I14">
-        <v>0.0002164813950916887</v>
+        <v>0.0005604560290058679</v>
       </c>
       <c r="J14">
-        <v>0.0002164813950916888</v>
+        <v>0.000560456029005868</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N14">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O14">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P14">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q14">
-        <v>125.8631683474787</v>
+        <v>559.1337900401487</v>
       </c>
       <c r="R14">
-        <v>1132.768515127308</v>
+        <v>5032.204110361338</v>
       </c>
       <c r="S14">
-        <v>4.541800652543599E-05</v>
+        <v>0.000167250293816667</v>
       </c>
       <c r="T14">
-        <v>4.5418006525436E-05</v>
+        <v>0.0001672502938166671</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.272029666666667</v>
+        <v>3.326003</v>
       </c>
       <c r="H15">
-        <v>3.816089</v>
+        <v>9.978009</v>
       </c>
       <c r="I15">
-        <v>0.0002164813950916887</v>
+        <v>0.0005604560290058679</v>
       </c>
       <c r="J15">
-        <v>0.0002164813950916888</v>
+        <v>0.000560456029005868</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>489.018707</v>
       </c>
       <c r="O15">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P15">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q15">
-        <v>207.3487676196581</v>
+        <v>542.1592288460404</v>
       </c>
       <c r="R15">
-        <v>1866.138908576923</v>
+        <v>4879.433059614363</v>
       </c>
       <c r="S15">
-        <v>7.482226774072301E-05</v>
+        <v>0.0001621727964489623</v>
       </c>
       <c r="T15">
-        <v>7.482226774072302E-05</v>
+        <v>0.0001621727964489623</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.272029666666667</v>
+        <v>3.326003</v>
       </c>
       <c r="H16">
-        <v>3.816089</v>
+        <v>9.978009</v>
       </c>
       <c r="I16">
-        <v>0.0002164813950916887</v>
+        <v>0.0005604560290058679</v>
       </c>
       <c r="J16">
-        <v>0.0002164813950916888</v>
+        <v>0.000560456029005868</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N16">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O16">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P16">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q16">
-        <v>183.5192774529678</v>
+        <v>552.09497876059</v>
       </c>
       <c r="R16">
-        <v>1651.67349707671</v>
+        <v>4968.85480884531</v>
       </c>
       <c r="S16">
-        <v>6.622334278039934E-05</v>
+        <v>0.0001651448169601499</v>
       </c>
       <c r="T16">
-        <v>6.622334278039935E-05</v>
+        <v>0.0001651448169601499</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.272029666666667</v>
+        <v>3.326003</v>
       </c>
       <c r="H17">
-        <v>3.816089</v>
+        <v>9.978009</v>
       </c>
       <c r="I17">
-        <v>0.0002164813950916887</v>
+        <v>0.0005604560290058679</v>
       </c>
       <c r="J17">
-        <v>0.0002164813950916888</v>
+        <v>0.000560456029005868</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N17">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O17">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P17">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q17">
-        <v>83.18578776449779</v>
+        <v>220.2703170728697</v>
       </c>
       <c r="R17">
-        <v>748.6720898804801</v>
+        <v>1982.432853655827</v>
       </c>
       <c r="S17">
-        <v>3.001777804513038E-05</v>
+        <v>6.58881217800887E-05</v>
       </c>
       <c r="T17">
-        <v>3.001777804513039E-05</v>
+        <v>6.588812178008872E-05</v>
       </c>
     </row>
   </sheetData>
